--- a/documentation-generator/vocab_csv/location_jurisdiction.xlsx
+++ b/documentation-generator/vocab_csv/location_jurisdiction.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="1592">
   <si>
     <t>Term</t>
   </si>
@@ -3995,6 +3995,18 @@
     <t>https://www.uoou.cz/</t>
   </si>
   <si>
+    <t>DPA-CY</t>
+  </si>
+  <si>
+    <t>Commissioner for Personal Data Protection</t>
+  </si>
+  <si>
+    <t>dpv-legal:CY</t>
+  </si>
+  <si>
+    <t>http://www.dataprotection.gov.cy/</t>
+  </si>
+  <si>
     <t>DPA-DE</t>
   </si>
   <si>
@@ -4355,6 +4367,18 @@
     <t>http://www.dataprotection.ie</t>
   </si>
   <si>
+    <t>DPA-IS</t>
+  </si>
+  <si>
+    <t>Icelandic Data Protection Authority</t>
+  </si>
+  <si>
+    <t>dpv-legal:IS</t>
+  </si>
+  <si>
+    <t>https://www.dpa.is/</t>
+  </si>
+  <si>
     <t>DPA-IT</t>
   </si>
   <si>
@@ -4367,6 +4391,18 @@
     <t>https://www.garanteprivacy.it/</t>
   </si>
   <si>
+    <t>DPV-LI</t>
+  </si>
+  <si>
+    <t>Liechtenstein Data Protection Authority</t>
+  </si>
+  <si>
+    <t>dpv-legal:LI</t>
+  </si>
+  <si>
+    <t>https://www.datenschutzstelle.li/</t>
+  </si>
+  <si>
     <t>DPA-LT</t>
   </si>
   <si>
@@ -4427,6 +4463,18 @@
     <t>https://autoriteitpersoonsgegevens.nl</t>
   </si>
   <si>
+    <t>DPV-NO</t>
+  </si>
+  <si>
+    <t>Norwegian Data Protection Authority</t>
+  </si>
+  <si>
+    <t>dpv-legal:NO</t>
+  </si>
+  <si>
+    <t>https://www.datatilsynet.no/</t>
+  </si>
+  <si>
     <t>DPA-PL</t>
   </si>
   <si>
@@ -4574,6 +4622,18 @@
     <t>https://ag.nv.gov/</t>
   </si>
   <si>
+    <t>DPA-EU-EDPS</t>
+  </si>
+  <si>
+    <t>European Data Protection Supervisor</t>
+  </si>
+  <si>
+    <t>dpv-legal:EU</t>
+  </si>
+  <si>
+    <t>https://edps.europa.eu/</t>
+  </si>
+  <si>
     <t>has Broader</t>
   </si>
   <si>
@@ -4623,9 +4683,6 @@
   </si>
   <si>
     <t>European Union (EU-27)</t>
-  </si>
-  <si>
-    <t>dpv-legal:EU</t>
   </si>
   <si>
     <t>EU28</t>
@@ -4800,7 +4857,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4953,6 +5010,18 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -5040,7 +5109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5222,16 +5291,22 @@
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -27275,7 +27350,7 @@
       <c r="A6" s="56" t="s">
         <v>1303</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="58" t="s">
         <v>1304</v>
       </c>
       <c r="C6" s="57"/>
@@ -27319,27 +27394,27 @@
       <c r="Y6" s="44"/>
     </row>
     <row r="7">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="58" t="s">
         <v>1307</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="58" t="s">
         <v>1308</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="58" t="s">
         <v>1291</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" s="56" t="s">
+      <c r="E7" s="58" t="s">
         <v>1309</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="F7" s="58" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G7" s="63" t="s">
         <v>1310</v>
       </c>
       <c r="H7" s="59">
-        <v>44650.0</v>
+        <v>45093.0</v>
       </c>
       <c r="I7" s="44"/>
       <c r="J7" s="60" t="s">
@@ -27348,9 +27423,7 @@
       <c r="K7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="62" t="s">
-        <v>137</v>
-      </c>
+      <c r="L7" s="60"/>
       <c r="M7" s="44"/>
       <c r="N7" s="44"/>
       <c r="O7" s="44"/>
@@ -27372,20 +27445,18 @@
       <c r="B8" s="56" t="s">
         <v>1312</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>1313</v>
-      </c>
+      <c r="C8" s="57"/>
       <c r="D8" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>1169</v>
+        <v>233</v>
       </c>
       <c r="F8" s="56" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G8" s="61" t="s">
         <v>1314</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>1315</v>
       </c>
       <c r="H8" s="59">
         <v>44650.0</v>
@@ -27395,7 +27466,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="60" t="s">
-        <v>1165</v>
+        <v>25</v>
       </c>
       <c r="L8" s="62" t="s">
         <v>137</v>
@@ -27416,25 +27487,25 @@
     </row>
     <row r="9">
       <c r="A9" s="56" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B9" s="56" t="s">
         <v>1316</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="C9" s="56" t="s">
         <v>1317</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>1318</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="F9" s="56" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G9" s="61" t="s">
         <v>1319</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>1320</v>
       </c>
       <c r="H9" s="59">
         <v>44650.0</v>
@@ -27465,25 +27536,25 @@
     </row>
     <row r="10">
       <c r="A10" s="56" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B10" s="56" t="s">
         <v>1321</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="C10" s="56" t="s">
         <v>1322</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>1323</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="F10" s="56" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G10" s="61" t="s">
         <v>1324</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>1325</v>
       </c>
       <c r="H10" s="59">
         <v>44650.0</v>
@@ -27514,13 +27585,13 @@
     </row>
     <row r="11">
       <c r="A11" s="56" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B11" s="56" t="s">
         <v>1326</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="C11" s="56" t="s">
         <v>1327</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>1328</v>
       </c>
       <c r="D11" s="58" t="s">
         <v>1291</v>
@@ -27529,7 +27600,7 @@
         <v>1184</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="G11" s="61" t="s">
         <v>1329</v>
@@ -27575,13 +27646,13 @@
         <v>1291</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="F12" s="56" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G12" s="61" t="s">
         <v>1333</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>1334</v>
       </c>
       <c r="H12" s="59">
         <v>44650.0</v>
@@ -27612,25 +27683,25 @@
     </row>
     <row r="13">
       <c r="A13" s="56" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B13" s="56" t="s">
         <v>1335</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="C13" s="56" t="s">
         <v>1336</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>1337</v>
       </c>
       <c r="D13" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="F13" s="56" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G13" s="61" t="s">
         <v>1338</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>1339</v>
       </c>
       <c r="H13" s="59">
         <v>44650.0</v>
@@ -27661,25 +27732,25 @@
     </row>
     <row r="14">
       <c r="A14" s="56" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B14" s="56" t="s">
         <v>1340</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="C14" s="56" t="s">
         <v>1341</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>1342</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="F14" s="56" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G14" s="61" t="s">
         <v>1343</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>1344</v>
       </c>
       <c r="H14" s="59">
         <v>44650.0</v>
@@ -27710,25 +27781,25 @@
     </row>
     <row r="15">
       <c r="A15" s="56" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B15" s="56" t="s">
         <v>1345</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="C15" s="56" t="s">
         <v>1346</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>1347</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="F15" s="56" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G15" s="61" t="s">
         <v>1348</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>1349</v>
       </c>
       <c r="H15" s="59">
         <v>44650.0</v>
@@ -27759,25 +27830,25 @@
     </row>
     <row r="16">
       <c r="A16" s="56" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B16" s="56" t="s">
         <v>1350</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="C16" s="56" t="s">
         <v>1351</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>1352</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="F16" s="56" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G16" s="61" t="s">
         <v>1353</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>1354</v>
       </c>
       <c r="H16" s="59">
         <v>44650.0</v>
@@ -27808,25 +27879,25 @@
     </row>
     <row r="17">
       <c r="A17" s="56" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B17" s="56" t="s">
         <v>1355</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="C17" s="56" t="s">
         <v>1356</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>1357</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="F17" s="56" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G17" s="61" t="s">
         <v>1358</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>1359</v>
       </c>
       <c r="H17" s="59">
         <v>44650.0</v>
@@ -27857,25 +27928,25 @@
     </row>
     <row r="18">
       <c r="A18" s="56" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B18" s="56" t="s">
         <v>1360</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="C18" s="56" t="s">
         <v>1361</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>1362</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E18" s="56" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G18" s="61" t="s">
         <v>1363</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>1365</v>
       </c>
       <c r="H18" s="59">
         <v>44650.0</v>
@@ -27885,7 +27956,7 @@
         <v>20</v>
       </c>
       <c r="K18" s="60" t="s">
-        <v>25</v>
+        <v>1165</v>
       </c>
       <c r="L18" s="62" t="s">
         <v>137</v>
@@ -27906,25 +27977,25 @@
     </row>
     <row r="19">
       <c r="A19" s="56" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C19" s="56" t="s">
         <v>1366</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>1368</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>1229</v>
+        <v>1367</v>
       </c>
       <c r="F19" s="56" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G19" s="61" t="s">
         <v>1369</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>1370</v>
       </c>
       <c r="H19" s="59">
         <v>44650.0</v>
@@ -27934,7 +28005,7 @@
         <v>20</v>
       </c>
       <c r="K19" s="60" t="s">
-        <v>1165</v>
+        <v>25</v>
       </c>
       <c r="L19" s="62" t="s">
         <v>137</v>
@@ -27955,25 +28026,25 @@
     </row>
     <row r="20">
       <c r="A20" s="56" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B20" s="56" t="s">
         <v>1371</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="C20" s="56" t="s">
         <v>1372</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>1373</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="F20" s="56" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G20" s="61" t="s">
         <v>1374</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>1375</v>
       </c>
       <c r="H20" s="59">
         <v>44650.0</v>
@@ -28004,25 +28075,25 @@
     </row>
     <row r="21">
       <c r="A21" s="56" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B21" s="56" t="s">
         <v>1376</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="C21" s="56" t="s">
         <v>1377</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>1378</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F21" s="56" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G21" s="61" t="s">
         <v>1379</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>1380</v>
       </c>
       <c r="H21" s="59">
         <v>44650.0</v>
@@ -28053,25 +28124,25 @@
     </row>
     <row r="22">
       <c r="A22" s="56" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B22" s="56" t="s">
         <v>1381</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="C22" s="56" t="s">
         <v>1382</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>1383</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>1204</v>
+        <v>1239</v>
       </c>
       <c r="F22" s="56" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G22" s="61" t="s">
         <v>1384</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>1385</v>
       </c>
       <c r="H22" s="59">
         <v>44650.0</v>
@@ -28102,25 +28173,25 @@
     </row>
     <row r="23">
       <c r="A23" s="56" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B23" s="56" t="s">
         <v>1386</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="C23" s="56" t="s">
         <v>1387</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>1388</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>1244</v>
+        <v>1204</v>
       </c>
       <c r="F23" s="56" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G23" s="61" t="s">
         <v>1389</v>
-      </c>
-      <c r="G23" s="61" t="s">
-        <v>1390</v>
       </c>
       <c r="H23" s="59">
         <v>44650.0</v>
@@ -28151,20 +28222,22 @@
     </row>
     <row r="24">
       <c r="A24" s="56" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B24" s="56" t="s">
         <v>1391</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="C24" s="56" t="s">
         <v>1392</v>
       </c>
-      <c r="C24" s="63"/>
       <c r="D24" s="58" t="s">
         <v>1291</v>
       </c>
       <c r="E24" s="56" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F24" s="56" t="s">
         <v>1393</v>
-      </c>
-      <c r="F24" s="56" t="s">
-        <v>1293</v>
       </c>
       <c r="G24" s="61" t="s">
         <v>1394</v>
@@ -28177,7 +28250,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="60" t="s">
-        <v>25</v>
+        <v>1165</v>
       </c>
       <c r="L24" s="62" t="s">
         <v>137</v>
@@ -28203,7 +28276,7 @@
       <c r="B25" s="56" t="s">
         <v>1396</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28250,7 +28323,7 @@
       <c r="B26" s="56" t="s">
         <v>1400</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28297,7 +28370,7 @@
       <c r="B27" s="56" t="s">
         <v>1404</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28344,7 +28417,7 @@
       <c r="B28" s="56" t="s">
         <v>1408</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28391,7 +28464,7 @@
       <c r="B29" s="56" t="s">
         <v>1412</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28438,7 +28511,7 @@
       <c r="B30" s="56" t="s">
         <v>1416</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28485,7 +28558,7 @@
       <c r="B31" s="56" t="s">
         <v>1420</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28532,7 +28605,7 @@
       <c r="B32" s="56" t="s">
         <v>1424</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28579,7 +28652,7 @@
       <c r="B33" s="56" t="s">
         <v>1428</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28620,38 +28693,34 @@
       <c r="Y33" s="44"/>
     </row>
     <row r="34">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="58" t="s">
         <v>1431</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="58" t="s">
         <v>1432</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="58" t="s">
         <v>1291</v>
       </c>
-      <c r="E34" s="56" t="s">
+      <c r="E34" s="58" t="s">
         <v>1433</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="58" t="s">
         <v>1293</v>
       </c>
-      <c r="G34" s="61" t="s">
+      <c r="G34" s="65" t="s">
         <v>1434</v>
       </c>
       <c r="H34" s="59">
-        <v>44650.0</v>
+        <v>45093.0</v>
       </c>
       <c r="I34" s="44"/>
       <c r="J34" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="62" t="s">
-        <v>137</v>
-      </c>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
       <c r="M34" s="44"/>
       <c r="N34" s="44"/>
       <c r="O34" s="44"/>
@@ -28673,7 +28742,7 @@
       <c r="B35" s="56" t="s">
         <v>1436</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28714,38 +28783,34 @@
       <c r="Y35" s="44"/>
     </row>
     <row r="36">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="58" t="s">
         <v>1439</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="58" t="s">
         <v>1440</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="58" t="s">
         <v>1291</v>
       </c>
-      <c r="E36" s="56" t="s">
+      <c r="E36" s="58" t="s">
         <v>1441</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="58" t="s">
         <v>1293</v>
       </c>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="63" t="s">
         <v>1442</v>
       </c>
       <c r="H36" s="59">
-        <v>44650.0</v>
+        <v>45093.0</v>
       </c>
       <c r="I36" s="44"/>
       <c r="J36" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="62" t="s">
-        <v>137</v>
-      </c>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
       <c r="M36" s="44"/>
       <c r="N36" s="44"/>
       <c r="O36" s="44"/>
@@ -28767,7 +28832,7 @@
       <c r="B37" s="56" t="s">
         <v>1444</v>
       </c>
-      <c r="C37" s="63"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28811,10 +28876,10 @@
       <c r="A38" s="56" t="s">
         <v>1447</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="56" t="s">
         <v>1448</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28861,7 +28926,7 @@
       <c r="B39" s="56" t="s">
         <v>1452</v>
       </c>
-      <c r="C39" s="63"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28908,7 +28973,7 @@
       <c r="B40" s="56" t="s">
         <v>1456</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28952,10 +29017,10 @@
       <c r="A41" s="56" t="s">
         <v>1459</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="58" t="s">
         <v>1460</v>
       </c>
-      <c r="C41" s="63"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="58" t="s">
         <v>1291</v>
       </c>
@@ -28996,38 +29061,34 @@
       <c r="Y41" s="44"/>
     </row>
     <row r="42">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="58" t="s">
         <v>1463</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="58" t="s">
         <v>1464</v>
       </c>
-      <c r="C42" s="63"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="58" t="s">
         <v>1291</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="58" t="s">
         <v>1465</v>
       </c>
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="58" t="s">
         <v>1293</v>
       </c>
-      <c r="G42" s="61" t="s">
+      <c r="G42" s="63" t="s">
         <v>1466</v>
       </c>
       <c r="H42" s="59">
-        <v>44650.0</v>
+        <v>45093.0</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="62" t="s">
-        <v>137</v>
-      </c>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
       <c r="O42" s="44"/>
@@ -29049,7 +29110,7 @@
       <c r="B43" s="56" t="s">
         <v>1468</v>
       </c>
-      <c r="C43" s="63"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="58" t="s">
         <v>1291</v>
       </c>
@@ -29096,7 +29157,7 @@
       <c r="B44" s="56" t="s">
         <v>1472</v>
       </c>
-      <c r="C44" s="63"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="58" t="s">
         <v>1291</v>
       </c>
@@ -29137,27 +29198,27 @@
       <c r="Y44" s="44"/>
     </row>
     <row r="45">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="56" t="s">
         <v>1475</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="56" t="s">
         <v>1476</v>
       </c>
-      <c r="C45" s="44"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="58" t="s">
         <v>1291</v>
       </c>
-      <c r="E45" s="60" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F45" s="58" t="s">
+      <c r="E45" s="56" t="s">
         <v>1477</v>
       </c>
-      <c r="G45" s="62" t="s">
+      <c r="F45" s="56" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G45" s="61" t="s">
         <v>1478</v>
       </c>
       <c r="H45" s="59">
-        <v>44762.0</v>
+        <v>44650.0</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="60" t="s">
@@ -29184,209 +29245,221 @@
       <c r="Y45" s="44"/>
     </row>
     <row r="46">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="56" t="s">
         <v>1479</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="56" t="s">
         <v>1480</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="64"/>
+      <c r="D46" s="58" t="s">
         <v>1291</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="E46" s="56" t="s">
         <v>1481</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="F46" s="56" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G46" s="61" t="s">
         <v>1482</v>
       </c>
-      <c r="H46" s="12">
-        <v>44887.0</v>
-      </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>1262</v>
-      </c>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
+      <c r="H46" s="59">
+        <v>44650.0</v>
+      </c>
+      <c r="I46" s="44"/>
+      <c r="J46" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
     </row>
     <row r="47">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="56" t="s">
         <v>1483</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="56" t="s">
         <v>1484</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="64"/>
+      <c r="D47" s="58" t="s">
         <v>1291</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="56" t="s">
         <v>1485</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="56" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G47" s="61" t="s">
         <v>1486</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="H47" s="59">
+        <v>44650.0</v>
+      </c>
+      <c r="I47" s="44"/>
+      <c r="J47" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="56" t="s">
         <v>1487</v>
       </c>
-      <c r="H47" s="12">
-        <v>44888.0</v>
-      </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="20" t="s">
-        <v>1262</v>
-      </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="10" t="s">
+      <c r="B48" s="56" t="s">
         <v>1488</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="64"/>
+      <c r="D48" s="58" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E48" s="56" t="s">
         <v>1489</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="64" t="s">
+      <c r="F48" s="56" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G48" s="61" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H48" s="59">
+        <v>44650.0</v>
+      </c>
+      <c r="I48" s="44"/>
+      <c r="J48" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="60" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C49" s="44"/>
+      <c r="D49" s="58" t="s">
         <v>1291</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>1490</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>1491</v>
-      </c>
-      <c r="H48" s="12">
-        <v>44888.0</v>
-      </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>1262</v>
-      </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="10" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="E49" s="60" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F49" s="58" t="s">
         <v>1493</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="64" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F49" s="10" t="s">
+      <c r="G49" s="62" t="s">
         <v>1494</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>1495</v>
-      </c>
-      <c r="H49" s="12">
-        <v>44888.0</v>
-      </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="20" t="s">
-        <v>1262</v>
-      </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
+      <c r="H49" s="59">
+        <v>44762.0</v>
+      </c>
+      <c r="I49" s="44"/>
+      <c r="J49" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>1496</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="66" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>1497</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="10" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="13" t="s">
         <v>1498</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>1499</v>
-      </c>
       <c r="H50" s="12">
-        <v>44888.0</v>
+        <v>44887.0</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="20" t="s">
+      <c r="K50" s="10" t="s">
         <v>1262</v>
       </c>
       <c r="L50" s="11"/>
@@ -29403,18 +29476,236 @@
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
     </row>
+    <row r="51">
+      <c r="A51" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="66" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H51" s="12">
+        <v>44888.0</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="20" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="10" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="66" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>1507</v>
+      </c>
+      <c r="H52" s="12">
+        <v>44888.0</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="20" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="66" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H53" s="12">
+        <v>44888.0</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="10" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="10" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H54" s="12">
+        <v>44888.0</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="20" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="10" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="10" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H55" s="12">
+        <v>45093.0</v>
+      </c>
+      <c r="I55" s="11"/>
+      <c r="J55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:X168">
+  <conditionalFormatting sqref="A2:X172">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$J2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:X168">
+  <conditionalFormatting sqref="A2:X172">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$J2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:X168">
+  <conditionalFormatting sqref="A2:X172">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>$J2="changed"</formula>
     </cfRule>
@@ -29429,90 +29720,95 @@
     <hyperlink r:id="rId7" ref="G6"/>
     <hyperlink r:id="rId8" ref="L6"/>
     <hyperlink r:id="rId9" ref="G7"/>
-    <hyperlink r:id="rId10" ref="L7"/>
-    <hyperlink r:id="rId11" ref="G8"/>
-    <hyperlink r:id="rId12" ref="L8"/>
-    <hyperlink r:id="rId13" ref="G9"/>
-    <hyperlink r:id="rId14" ref="L9"/>
-    <hyperlink r:id="rId15" ref="G10"/>
-    <hyperlink r:id="rId16" ref="L10"/>
-    <hyperlink r:id="rId17" ref="G11"/>
-    <hyperlink r:id="rId18" ref="L11"/>
-    <hyperlink r:id="rId19" ref="G12"/>
-    <hyperlink r:id="rId20" ref="L12"/>
-    <hyperlink r:id="rId21" ref="G13"/>
-    <hyperlink r:id="rId22" ref="L13"/>
-    <hyperlink r:id="rId23" ref="G14"/>
-    <hyperlink r:id="rId24" ref="L14"/>
-    <hyperlink r:id="rId25" ref="G15"/>
-    <hyperlink r:id="rId26" ref="L15"/>
-    <hyperlink r:id="rId27" ref="G16"/>
-    <hyperlink r:id="rId28" ref="L16"/>
-    <hyperlink r:id="rId29" ref="G17"/>
-    <hyperlink r:id="rId30" ref="L17"/>
-    <hyperlink r:id="rId31" ref="G18"/>
-    <hyperlink r:id="rId32" ref="L18"/>
-    <hyperlink r:id="rId33" ref="G19"/>
-    <hyperlink r:id="rId34" ref="L19"/>
-    <hyperlink r:id="rId35" ref="G20"/>
-    <hyperlink r:id="rId36" ref="L20"/>
-    <hyperlink r:id="rId37" ref="G21"/>
-    <hyperlink r:id="rId38" ref="L21"/>
-    <hyperlink r:id="rId39" ref="G22"/>
-    <hyperlink r:id="rId40" ref="L22"/>
-    <hyperlink r:id="rId41" ref="G23"/>
-    <hyperlink r:id="rId42" ref="L23"/>
-    <hyperlink r:id="rId43" ref="G24"/>
-    <hyperlink r:id="rId44" ref="L24"/>
-    <hyperlink r:id="rId45" ref="G25"/>
-    <hyperlink r:id="rId46" ref="L25"/>
-    <hyperlink r:id="rId47" ref="G26"/>
-    <hyperlink r:id="rId48" ref="L26"/>
-    <hyperlink r:id="rId49" ref="G27"/>
-    <hyperlink r:id="rId50" ref="L27"/>
-    <hyperlink r:id="rId51" ref="G28"/>
-    <hyperlink r:id="rId52" ref="L28"/>
-    <hyperlink r:id="rId53" ref="G29"/>
-    <hyperlink r:id="rId54" ref="L29"/>
-    <hyperlink r:id="rId55" ref="G30"/>
-    <hyperlink r:id="rId56" ref="L30"/>
-    <hyperlink r:id="rId57" ref="G31"/>
-    <hyperlink r:id="rId58" ref="L31"/>
-    <hyperlink r:id="rId59" ref="G32"/>
-    <hyperlink r:id="rId60" ref="L32"/>
-    <hyperlink r:id="rId61" ref="G33"/>
-    <hyperlink r:id="rId62" ref="L33"/>
-    <hyperlink r:id="rId63" ref="G34"/>
-    <hyperlink r:id="rId64" ref="L34"/>
-    <hyperlink r:id="rId65" ref="G35"/>
-    <hyperlink r:id="rId66" ref="L35"/>
-    <hyperlink r:id="rId67" ref="G36"/>
-    <hyperlink r:id="rId68" ref="L36"/>
-    <hyperlink r:id="rId69" ref="G37"/>
-    <hyperlink r:id="rId70" ref="L37"/>
-    <hyperlink r:id="rId71" ref="G38"/>
-    <hyperlink r:id="rId72" ref="L38"/>
-    <hyperlink r:id="rId73" ref="G39"/>
-    <hyperlink r:id="rId74" ref="L39"/>
-    <hyperlink r:id="rId75" ref="G40"/>
-    <hyperlink r:id="rId76" ref="L40"/>
-    <hyperlink r:id="rId77" ref="G41"/>
-    <hyperlink r:id="rId78" ref="L41"/>
-    <hyperlink r:id="rId79" ref="G42"/>
-    <hyperlink r:id="rId80" ref="L42"/>
-    <hyperlink r:id="rId81" ref="G43"/>
-    <hyperlink r:id="rId82" ref="L43"/>
-    <hyperlink r:id="rId83" ref="G44"/>
-    <hyperlink r:id="rId84" ref="L44"/>
-    <hyperlink r:id="rId85" ref="G45"/>
-    <hyperlink r:id="rId86" ref="L45"/>
-    <hyperlink r:id="rId87" ref="G46"/>
-    <hyperlink r:id="rId88" ref="G47"/>
-    <hyperlink r:id="rId89" ref="G48"/>
-    <hyperlink r:id="rId90" ref="G49"/>
+    <hyperlink r:id="rId10" ref="G8"/>
+    <hyperlink r:id="rId11" ref="L8"/>
+    <hyperlink r:id="rId12" ref="G9"/>
+    <hyperlink r:id="rId13" ref="L9"/>
+    <hyperlink r:id="rId14" ref="G10"/>
+    <hyperlink r:id="rId15" ref="L10"/>
+    <hyperlink r:id="rId16" ref="G11"/>
+    <hyperlink r:id="rId17" ref="L11"/>
+    <hyperlink r:id="rId18" ref="G12"/>
+    <hyperlink r:id="rId19" ref="L12"/>
+    <hyperlink r:id="rId20" ref="G13"/>
+    <hyperlink r:id="rId21" ref="L13"/>
+    <hyperlink r:id="rId22" ref="G14"/>
+    <hyperlink r:id="rId23" ref="L14"/>
+    <hyperlink r:id="rId24" ref="G15"/>
+    <hyperlink r:id="rId25" ref="L15"/>
+    <hyperlink r:id="rId26" ref="G16"/>
+    <hyperlink r:id="rId27" ref="L16"/>
+    <hyperlink r:id="rId28" ref="G17"/>
+    <hyperlink r:id="rId29" ref="L17"/>
+    <hyperlink r:id="rId30" ref="G18"/>
+    <hyperlink r:id="rId31" ref="L18"/>
+    <hyperlink r:id="rId32" ref="G19"/>
+    <hyperlink r:id="rId33" ref="L19"/>
+    <hyperlink r:id="rId34" ref="G20"/>
+    <hyperlink r:id="rId35" ref="L20"/>
+    <hyperlink r:id="rId36" ref="G21"/>
+    <hyperlink r:id="rId37" ref="L21"/>
+    <hyperlink r:id="rId38" ref="G22"/>
+    <hyperlink r:id="rId39" ref="L22"/>
+    <hyperlink r:id="rId40" ref="G23"/>
+    <hyperlink r:id="rId41" ref="L23"/>
+    <hyperlink r:id="rId42" ref="G24"/>
+    <hyperlink r:id="rId43" ref="L24"/>
+    <hyperlink r:id="rId44" ref="G25"/>
+    <hyperlink r:id="rId45" ref="L25"/>
+    <hyperlink r:id="rId46" ref="G26"/>
+    <hyperlink r:id="rId47" ref="L26"/>
+    <hyperlink r:id="rId48" ref="G27"/>
+    <hyperlink r:id="rId49" ref="L27"/>
+    <hyperlink r:id="rId50" ref="G28"/>
+    <hyperlink r:id="rId51" ref="L28"/>
+    <hyperlink r:id="rId52" ref="G29"/>
+    <hyperlink r:id="rId53" ref="L29"/>
+    <hyperlink r:id="rId54" ref="G30"/>
+    <hyperlink r:id="rId55" ref="L30"/>
+    <hyperlink r:id="rId56" ref="G31"/>
+    <hyperlink r:id="rId57" ref="L31"/>
+    <hyperlink r:id="rId58" ref="G32"/>
+    <hyperlink r:id="rId59" ref="L32"/>
+    <hyperlink r:id="rId60" ref="G33"/>
+    <hyperlink r:id="rId61" ref="L33"/>
+    <hyperlink r:id="rId62" ref="G34"/>
+    <hyperlink r:id="rId63" ref="G35"/>
+    <hyperlink r:id="rId64" ref="L35"/>
+    <hyperlink r:id="rId65" ref="G36"/>
+    <hyperlink r:id="rId66" ref="G37"/>
+    <hyperlink r:id="rId67" ref="L37"/>
+    <hyperlink r:id="rId68" ref="G38"/>
+    <hyperlink r:id="rId69" ref="L38"/>
+    <hyperlink r:id="rId70" ref="G39"/>
+    <hyperlink r:id="rId71" ref="L39"/>
+    <hyperlink r:id="rId72" ref="G40"/>
+    <hyperlink r:id="rId73" ref="L40"/>
+    <hyperlink r:id="rId74" ref="G41"/>
+    <hyperlink r:id="rId75" ref="L41"/>
+    <hyperlink r:id="rId76" ref="G42"/>
+    <hyperlink r:id="rId77" ref="G43"/>
+    <hyperlink r:id="rId78" ref="L43"/>
+    <hyperlink r:id="rId79" ref="G44"/>
+    <hyperlink r:id="rId80" ref="L44"/>
+    <hyperlink r:id="rId81" ref="G45"/>
+    <hyperlink r:id="rId82" ref="L45"/>
+    <hyperlink r:id="rId83" ref="G46"/>
+    <hyperlink r:id="rId84" ref="L46"/>
+    <hyperlink r:id="rId85" ref="G47"/>
+    <hyperlink r:id="rId86" ref="L47"/>
+    <hyperlink r:id="rId87" ref="G48"/>
+    <hyperlink r:id="rId88" ref="L48"/>
+    <hyperlink r:id="rId89" ref="G49"/>
+    <hyperlink r:id="rId90" ref="L49"/>
     <hyperlink r:id="rId91" ref="G50"/>
+    <hyperlink r:id="rId92" ref="G51"/>
+    <hyperlink r:id="rId93" ref="G52"/>
+    <hyperlink r:id="rId94" ref="G53"/>
+    <hyperlink r:id="rId95" ref="G54"/>
+    <hyperlink r:id="rId96" ref="G55"/>
   </hyperlinks>
-  <drawing r:id="rId92"/>
+  <drawing r:id="rId97"/>
 </worksheet>
 </file>
 
@@ -29546,16 +29842,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1500</v>
+        <v>1520</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1501</v>
+        <v>1521</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1502</v>
+        <v>1522</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1503</v>
+        <v>1523</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -29575,19 +29871,19 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>1504</v>
+        <v>1524</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>1506</v>
+        <v>1525</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>1526</v>
       </c>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
-      <c r="G2" s="66" t="s">
-        <v>1507</v>
+      <c r="G2" s="68" t="s">
+        <v>1527</v>
       </c>
       <c r="H2" s="19">
         <v>44650.0</v>
@@ -29617,23 +29913,23 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>1508</v>
+        <v>1528</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>1506</v>
+        <v>1529</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>1526</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>1510</v>
+        <v>1530</v>
       </c>
       <c r="E3" s="50">
         <v>43862.0</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="45" t="s">
-        <v>1507</v>
+        <v>1527</v>
       </c>
       <c r="H3" s="19">
         <v>44650.0</v>
@@ -29663,16 +29959,16 @@
     </row>
     <row r="4">
       <c r="A4" s="45" t="s">
-        <v>1511</v>
+        <v>1531</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>1506</v>
+        <v>1532</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>1526</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>1510</v>
+        <v>1530</v>
       </c>
       <c r="E4" s="50">
         <v>41741.0</v>
@@ -29681,7 +29977,7 @@
         <v>43861.0</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>1513</v>
+        <v>1533</v>
       </c>
       <c r="H4" s="19">
         <v>44650.0</v>
@@ -29714,16 +30010,16 @@
         <v>1246</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>1506</v>
+        <v>1534</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>1526</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
       <c r="F5" s="47"/>
       <c r="G5" s="45" t="s">
-        <v>1507</v>
+        <v>1527</v>
       </c>
       <c r="H5" s="19">
         <v>44650.0</v>
@@ -29753,23 +30049,23 @@
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>1506</v>
+        <v>1536</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>1526</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="E6" s="50">
         <v>43862.0</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="45" t="s">
-        <v>1507</v>
+        <v>1527</v>
       </c>
       <c r="H6" s="19">
         <v>44650.0</v>
@@ -29799,16 +30095,16 @@
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D7" s="45" t="s">
         <v>1518</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>1517</v>
       </c>
       <c r="E7" s="50">
         <v>41456.0</v>
@@ -29817,7 +30113,7 @@
         <v>43861.0</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>1513</v>
+        <v>1533</v>
       </c>
       <c r="H7" s="19">
         <v>44650.0</v>
@@ -33370,16 +33666,16 @@
         <v>1159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1520</v>
+        <v>1539</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1501</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>1502</v>
+        <v>1522</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -33399,19 +33695,19 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>1522</v>
+        <v>1541</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>1523</v>
+        <v>1542</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>1517</v>
+        <v>1543</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>1525</v>
+        <v>1544</v>
       </c>
       <c r="F2" s="50">
         <v>40472.0</v>
@@ -33445,19 +33741,19 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>1526</v>
+        <v>1545</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>1527</v>
+        <v>1546</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>1517</v>
+        <v>1547</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>1529</v>
+        <v>1548</v>
       </c>
       <c r="F3" s="50">
         <v>37807.0</v>
@@ -33491,19 +33787,19 @@
     </row>
     <row r="4">
       <c r="A4" s="45" t="s">
-        <v>1530</v>
+        <v>1549</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>1531</v>
+        <v>1550</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>1517</v>
+        <v>1551</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>1533</v>
+        <v>1552</v>
       </c>
       <c r="F4" s="50">
         <v>37260.0</v>
@@ -33537,19 +33833,19 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>1534</v>
+        <v>1553</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>1535</v>
+        <v>1554</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>1517</v>
+        <v>1555</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>1537</v>
+        <v>1556</v>
       </c>
       <c r="F5" s="50">
         <v>36763.0</v>
@@ -33583,19 +33879,19 @@
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
-        <v>1538</v>
+        <v>1557</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>1539</v>
+        <v>1558</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>1517</v>
+        <v>1559</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>1541</v>
+        <v>1560</v>
       </c>
       <c r="F6" s="50">
         <v>40246.0</v>
@@ -33629,16 +33925,16 @@
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
-        <v>1542</v>
+        <v>1561</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>1543</v>
+        <v>1562</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>1517</v>
+        <v>1563</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>1265</v>
@@ -33675,19 +33971,19 @@
     </row>
     <row r="8">
       <c r="A8" s="45" t="s">
-        <v>1545</v>
+        <v>1564</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>1546</v>
+        <v>1565</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>1517</v>
+        <v>1566</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>1548</v>
+        <v>1567</v>
       </c>
       <c r="F8" s="50">
         <v>37946.0</v>
@@ -33721,19 +34017,19 @@
     </row>
     <row r="9">
       <c r="A9" s="45" t="s">
-        <v>1549</v>
+        <v>1568</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>1550</v>
+        <v>1569</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>1517</v>
+        <v>1570</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>1552</v>
+        <v>1571</v>
       </c>
       <c r="F9" s="50">
         <v>40575.0</v>
@@ -33767,19 +34063,19 @@
     </row>
     <row r="10">
       <c r="A10" s="45" t="s">
-        <v>1553</v>
+        <v>1572</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>1554</v>
+        <v>1573</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>1517</v>
+        <v>1574</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>1556</v>
+        <v>1575</v>
       </c>
       <c r="F10" s="50">
         <v>38107.0</v>
@@ -33813,19 +34109,19 @@
     </row>
     <row r="11">
       <c r="A11" s="45" t="s">
-        <v>1557</v>
+        <v>1576</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>1558</v>
+        <v>1577</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>1517</v>
+        <v>1578</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>1560</v>
+        <v>1579</v>
       </c>
       <c r="F11" s="50">
         <v>39594.0</v>
@@ -33859,19 +34155,19 @@
     </row>
     <row r="12">
       <c r="A12" s="45" t="s">
-        <v>1561</v>
+        <v>1580</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>1562</v>
+        <v>1581</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>1517</v>
+        <v>1582</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>1564</v>
+        <v>1583</v>
       </c>
       <c r="F12" s="50">
         <v>43488.0</v>
@@ -33905,19 +34201,19 @@
     </row>
     <row r="13">
       <c r="A13" s="45" t="s">
-        <v>1565</v>
+        <v>1584</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>1566</v>
+        <v>1585</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>1517</v>
+        <v>1586</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>1568</v>
+        <v>1587</v>
       </c>
       <c r="F13" s="50">
         <v>41263.0</v>
@@ -33951,19 +34247,19 @@
     </row>
     <row r="14">
       <c r="A14" s="45" t="s">
-        <v>1569</v>
+        <v>1588</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>1570</v>
+        <v>1589</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>1517</v>
+        <v>1590</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>1518</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>1572</v>
+        <v>1591</v>
       </c>
       <c r="F14" s="50">
         <v>41143.0</v>
